--- a/back_testing/datos/SPY_20250206_184747_REV.xlsx
+++ b/back_testing/datos/SPY_20250206_184747_REV.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bravi\projects\trade_python\back_testing\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42896BAC-5F15-4967-B79F-8EEA0F25A0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496E879B-489C-4C1A-AFAD-0A6A0B156EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{346C9BC1-C6AA-4333-9959-A26EB18A8612}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{346C9BC1-C6AA-4333-9959-A26EB18A8612}"/>
   </bookViews>
   <sheets>
     <sheet name="SPY_20250206_184747" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -516,7 +529,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -696,6 +709,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -857,12 +888,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1238,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06B36CE-48EC-4607-84E3-D41B3EC6C23D}">
-  <dimension ref="A1:J1874"/>
+  <dimension ref="A1:N1874"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1283,7 +1317,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="1">
@@ -1315,7 +1349,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -1347,7 +1381,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -1379,7 +1413,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -1411,7 +1445,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -1443,7 +1477,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -1475,7 +1509,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -1493,7 +1527,7 @@
       <c r="F8">
         <v>590.17999269999996</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>590.53002930000002</v>
       </c>
       <c r="H8" s="2">
@@ -1507,7 +1541,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="1">
@@ -1539,7 +1573,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="1">
@@ -1571,7 +1605,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="1">
@@ -1603,7 +1637,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -1635,7 +1669,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="1">
@@ -1667,7 +1701,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="1">
@@ -1699,7 +1733,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -1731,7 +1765,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -1763,7 +1797,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -1795,7 +1829,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="1">
@@ -1827,7 +1861,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -1859,7 +1893,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="1">
@@ -1891,7 +1925,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -1923,7 +1957,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -1955,7 +1989,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="1">
@@ -1987,7 +2021,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="1">
@@ -2019,7 +2053,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="1">
@@ -2051,7 +2085,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="1">
@@ -2083,7 +2117,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27">
+      <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="1">
@@ -2115,7 +2149,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="1">
@@ -2147,7 +2181,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29">
+      <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="1">
@@ -2179,7 +2213,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="1">
@@ -2211,7 +2245,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="1">
@@ -2243,7 +2277,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="1">
@@ -2275,7 +2309,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="1">
@@ -2307,7 +2341,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="1">
@@ -2339,7 +2373,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="1">
@@ -2371,7 +2405,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="1">
@@ -2403,7 +2437,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="1">
@@ -2435,7 +2469,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="1">
@@ -2467,7 +2501,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="1">
@@ -2499,7 +2533,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="1">
@@ -2531,7 +2565,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="1">
@@ -2563,7 +2597,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="1">
@@ -2595,7 +2629,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="1">
@@ -2627,7 +2661,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A44">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="1">
@@ -2659,7 +2693,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A45">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="1">
@@ -2691,7 +2725,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="1">
@@ -2723,7 +2757,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="1">
@@ -2755,7 +2789,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="1">
@@ -2787,7 +2821,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="1">
@@ -2819,7 +2853,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="1">
@@ -2851,7 +2885,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="1">
@@ -2883,7 +2917,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="1">
@@ -2915,7 +2949,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="1">
@@ -2947,7 +2981,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="1">
@@ -2979,7 +3013,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="1">
@@ -3011,7 +3045,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="1">
@@ -3043,7 +3077,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="1">
@@ -3075,7 +3109,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="1">
@@ -3107,7 +3141,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59">
+      <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="1">
@@ -3139,7 +3173,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60">
+      <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="1">
@@ -3171,7 +3205,7 @@
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61">
+      <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="1">
@@ -3203,7 +3237,7 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A62">
+      <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="1">
@@ -3235,7 +3269,7 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A63">
+      <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="1">
@@ -3267,7 +3301,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64">
+      <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="1">
@@ -3299,7 +3333,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65">
+      <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="1">
@@ -3331,7 +3365,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A66">
+      <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="1">
@@ -3363,7 +3397,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67">
+      <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="1">
@@ -3395,7 +3429,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68">
+      <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="1">
@@ -3427,7 +3461,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69">
+      <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="1">
@@ -3459,7 +3493,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70">
+      <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="1">
@@ -3491,7 +3525,7 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71">
+      <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="1">
@@ -3523,7 +3557,7 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72">
+      <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="1">
@@ -3555,7 +3589,7 @@
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="1">
@@ -3587,7 +3621,7 @@
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A74">
+      <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="1">
@@ -3619,7 +3653,7 @@
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75">
+      <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="1">
@@ -3651,7 +3685,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76">
+      <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="1">
@@ -3683,7 +3717,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A77">
+      <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="1">
@@ -3715,7 +3749,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78">
+      <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="1">
@@ -3747,7 +3781,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79">
+      <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="1">
@@ -3779,7 +3813,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
       <c r="B80" s="1">
@@ -3810,8 +3844,8 @@
         <v>5.8650710000000003E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A81">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
       <c r="B81" s="1">
@@ -3842,8 +3876,8 @@
         <v>2.2803509999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
       <c r="B82" s="1">
@@ -3874,8 +3908,8 @@
         <v>-2.03585E-4</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
       <c r="B83" s="1">
@@ -3906,8 +3940,8 @@
         <v>-2.3926640000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
       <c r="B84" s="1">
@@ -3938,8 +3972,8 @@
         <v>-3.40226E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
       <c r="B85" s="1">
@@ -3970,8 +4004,8 @@
         <v>5.6155899999999999E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
       <c r="B86" s="1">
@@ -4002,8 +4036,8 @@
         <v>1.819813E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
       <c r="B87" s="1">
@@ -4034,8 +4068,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A88">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
       <c r="B88" s="1">
@@ -4066,8 +4100,8 @@
         <v>-1.565866E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
       <c r="B89" s="1">
@@ -4098,8 +4132,8 @@
         <v>-9.35099E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
       <c r="B90" s="1">
@@ -4130,8 +4164,8 @@
         <v>3.0631300000000001E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
       <c r="B91" s="1">
@@ -4162,8 +4196,8 @@
         <v>7.3154100000000005E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A92" s="7">
         <v>91</v>
       </c>
       <c r="B92" s="1">
@@ -4193,9 +4227,17 @@
       <c r="J92">
         <v>5.4402699999999999E-4</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93">
+      <c r="M92">
+        <f>78*2-90-1</f>
+        <v>65</v>
+      </c>
+      <c r="N92">
+        <f>90/78</f>
+        <v>1.1538461538461537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93" s="7">
         <v>92</v>
       </c>
       <c r="B93" s="1">
@@ -4225,9 +4267,13 @@
       <c r="J93" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A94">
+      <c r="M93">
+        <f>91+M92</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A94" s="7">
         <v>93</v>
       </c>
       <c r="B94" s="1">
@@ -4258,8 +4304,8 @@
         <v>7.3910700000000002E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A95" s="7">
         <v>94</v>
       </c>
       <c r="B95" s="1">
@@ -4290,8 +4336,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A96" s="7">
         <v>95</v>
       </c>
       <c r="B96" s="1">
@@ -4323,7 +4369,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A97">
+      <c r="A97" s="7">
         <v>96</v>
       </c>
       <c r="B97" s="1">
@@ -4355,7 +4401,7 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98">
+      <c r="A98" s="7">
         <v>97</v>
       </c>
       <c r="B98" s="1">
@@ -4387,7 +4433,7 @@
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99">
+      <c r="A99" s="7">
         <v>98</v>
       </c>
       <c r="B99" s="1">
@@ -4419,7 +4465,7 @@
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100">
+      <c r="A100" s="7">
         <v>99</v>
       </c>
       <c r="B100" s="1">
@@ -4451,7 +4497,7 @@
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101">
+      <c r="A101" s="7">
         <v>100</v>
       </c>
       <c r="B101" s="1">
@@ -4483,7 +4529,7 @@
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102">
+      <c r="A102" s="7">
         <v>101</v>
       </c>
       <c r="B102" s="1">
@@ -4515,7 +4561,7 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A103">
+      <c r="A103" s="7">
         <v>102</v>
       </c>
       <c r="B103" s="1">
@@ -4547,7 +4593,7 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A104">
+      <c r="A104" s="7">
         <v>103</v>
       </c>
       <c r="B104" s="1">
@@ -4579,7 +4625,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A105">
+      <c r="A105" s="7">
         <v>104</v>
       </c>
       <c r="B105" s="1">
@@ -4611,7 +4657,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A106">
+      <c r="A106" s="7">
         <v>105</v>
       </c>
       <c r="B106" s="1">
@@ -4643,7 +4689,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A107">
+      <c r="A107" s="7">
         <v>106</v>
       </c>
       <c r="B107" s="1">
@@ -4675,7 +4721,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A108">
+      <c r="A108" s="7">
         <v>107</v>
       </c>
       <c r="B108" s="1">
@@ -4707,7 +4753,7 @@
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A109">
+      <c r="A109" s="7">
         <v>108</v>
       </c>
       <c r="B109" s="1">
@@ -4739,7 +4785,7 @@
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A110">
+      <c r="A110" s="7">
         <v>109</v>
       </c>
       <c r="B110" s="1">
@@ -4771,7 +4817,7 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A111">
+      <c r="A111" s="7">
         <v>110</v>
       </c>
       <c r="B111" s="1">
@@ -4803,7 +4849,7 @@
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A112">
+      <c r="A112" s="7">
         <v>111</v>
       </c>
       <c r="B112" s="1">
@@ -4835,7 +4881,7 @@
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A113">
+      <c r="A113" s="7">
         <v>112</v>
       </c>
       <c r="B113" s="1">
@@ -4867,7 +4913,7 @@
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A114">
+      <c r="A114" s="7">
         <v>113</v>
       </c>
       <c r="B114" s="1">
@@ -4899,7 +4945,7 @@
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A115">
+      <c r="A115" s="7">
         <v>114</v>
       </c>
       <c r="B115" s="1">
@@ -4931,7 +4977,7 @@
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A116">
+      <c r="A116" s="7">
         <v>115</v>
       </c>
       <c r="B116" s="1">
@@ -4963,7 +5009,7 @@
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A117">
+      <c r="A117" s="7">
         <v>116</v>
       </c>
       <c r="B117" s="1">
@@ -4995,7 +5041,7 @@
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A118">
+      <c r="A118" s="7">
         <v>117</v>
       </c>
       <c r="B118" s="1">
@@ -5027,7 +5073,7 @@
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A119">
+      <c r="A119" s="7">
         <v>118</v>
       </c>
       <c r="B119" s="1">
@@ -5059,7 +5105,7 @@
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A120">
+      <c r="A120" s="7">
         <v>119</v>
       </c>
       <c r="B120" s="1">
@@ -5091,7 +5137,7 @@
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A121">
+      <c r="A121" s="7">
         <v>120</v>
       </c>
       <c r="B121" s="1">
@@ -5123,7 +5169,7 @@
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A122">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
       <c r="B122" s="1">
@@ -5155,7 +5201,7 @@
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A123">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
       <c r="B123" s="1">
@@ -5187,7 +5233,7 @@
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A124">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
       <c r="B124" s="1">
@@ -5219,7 +5265,7 @@
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A125">
+      <c r="A125" s="7">
         <v>124</v>
       </c>
       <c r="B125" s="1">
@@ -5251,7 +5297,7 @@
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A126">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
       <c r="B126" s="1">
@@ -5283,7 +5329,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A127">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
       <c r="B127" s="1">
@@ -5315,7 +5361,7 @@
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A128">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
       <c r="B128" s="1">
@@ -5347,7 +5393,7 @@
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A129">
+      <c r="A129" s="7">
         <v>128</v>
       </c>
       <c r="B129" s="1">
@@ -5379,7 +5425,7 @@
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A130">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
       <c r="B130" s="1">
@@ -5411,7 +5457,7 @@
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A131">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
       <c r="B131" s="1">
@@ -5443,7 +5489,7 @@
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A132">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
       <c r="B132" s="1">
@@ -5475,7 +5521,7 @@
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A133">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
       <c r="B133" s="1">
@@ -5507,7 +5553,7 @@
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A134">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
       <c r="B134" s="1">
@@ -5539,7 +5585,7 @@
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A135">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
       <c r="B135" s="1">
@@ -5571,7 +5617,7 @@
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A136">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
       <c r="B136" s="1">
@@ -5603,7 +5649,7 @@
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A137">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
       <c r="B137" s="1">
@@ -5635,7 +5681,7 @@
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A138">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
       <c r="B138" s="1">
@@ -5667,7 +5713,7 @@
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A139">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
       <c r="B139" s="1">
@@ -5699,7 +5745,7 @@
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A140">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
       <c r="B140" s="1">
@@ -5731,7 +5777,7 @@
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A141">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
       <c r="B141" s="1">
@@ -5763,7 +5809,7 @@
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A142">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
       <c r="B142" s="1">
@@ -5795,7 +5841,7 @@
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A143">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
       <c r="B143" s="1">
@@ -5827,7 +5873,7 @@
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A144">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
       <c r="B144" s="1">
@@ -5859,7 +5905,7 @@
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A145">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
       <c r="B145" s="1">
@@ -5891,7 +5937,7 @@
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A146">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
       <c r="B146" s="1">
@@ -5923,7 +5969,7 @@
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A147">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
       <c r="B147" s="1">
@@ -5955,7 +6001,7 @@
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A148">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
       <c r="B148" s="1">
@@ -5987,7 +6033,7 @@
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A149">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
       <c r="B149" s="1">
@@ -6019,7 +6065,7 @@
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A150">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
       <c r="B150" s="1">
@@ -6051,7 +6097,7 @@
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A151">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="B151" s="1">
@@ -6083,7 +6129,7 @@
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A152">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
       <c r="B152" s="1">
@@ -6115,7 +6161,7 @@
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A153">
+      <c r="A153" s="7">
         <v>152</v>
       </c>
       <c r="B153" s="1">
@@ -6147,7 +6193,7 @@
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A154">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
       <c r="B154" s="1">
@@ -6179,7 +6225,7 @@
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A155">
+      <c r="A155" s="7">
         <v>154</v>
       </c>
       <c r="B155" s="1">
@@ -6211,7 +6257,7 @@
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A156">
+      <c r="A156" s="7">
         <v>155</v>
       </c>
       <c r="B156" s="1">
@@ -6243,7 +6289,7 @@
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A157">
+      <c r="A157" s="7">
         <v>156</v>
       </c>
       <c r="B157" s="1">
@@ -7235,7 +7281,7 @@
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A188">
+      <c r="A188" s="5">
         <v>187</v>
       </c>
       <c r="B188" s="1">
@@ -8291,7 +8337,7 @@
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A221">
+      <c r="A221" s="5">
         <v>220</v>
       </c>
       <c r="B221" s="1">
